--- a/NRCS_Wetland_Tools_Pro/SUPPORT/Layout_Elements.xlsx
+++ b/NRCS_Wetland_Tools_Pro/SUPPORT/Layout_Elements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIS_Tools\NRCS_Wetland_Tools_Pro\SUPPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E37B6FE-19AD-48C0-A857-92611AA2E1DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6AE408-67F0-4B09-8EF8-BB037638AD15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2310" windowWidth="29040" windowHeight="15840" xr2:uid="{F0EAE5BD-FA1D-401D-92C2-9EF29A179244}"/>
+    <workbookView xWindow="6225" yWindow="1065" windowWidth="38700" windowHeight="15435" xr2:uid="{F0EAE5BD-FA1D-401D-92C2-9EF29A179244}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -623,7 +623,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,10 +989,10 @@
         <v>18</v>
       </c>
       <c r="C9" s="9">
-        <v>1.9257</v>
+        <v>1.6315</v>
       </c>
       <c r="D9" s="9">
-        <v>0.60240000000000005</v>
+        <v>0.51039999999999996</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>28</v>
